--- a/Control/Controller_gains.xlsx
+++ b/Control/Controller_gains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathieu Pellé\Documents\EWEM\S3\LAC\46320_LAC\A3\HAWC_control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathieu Pellé\Documents\GitHub\LAC_RotorDesign\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94067B66-ED61-432A-B45C-4B763B065927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148027C2-5788-4A5C-A38E-930CECF0A773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14976" yWindow="2352" windowWidth="11520" windowHeight="12960" xr2:uid="{179E8614-4D99-4493-9CAD-CD59BF548B1F}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{179E8614-4D99-4493-9CAD-CD59BF548B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -131,7 +131,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,15 +553,69 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="2">
+        <v>20411500</v>
+      </c>
+      <c r="C5" s="2">
+        <v>111389000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>24995500</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.5749</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.57780699999999996</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.31691</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>20411500</v>
+      </c>
+      <c r="C6" s="2">
+        <v>22277700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>999822</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.51497999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.3112299999999999E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.31691</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20411500</v>
+      </c>
+      <c r="C7" s="2">
+        <v>222777000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>99982200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.1497999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.3112300000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.31691</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">

--- a/Control/Controller_gains.xlsx
+++ b/Control/Controller_gains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathieu Pellé\Documents\GitHub\LAC_RotorDesign\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148027C2-5788-4A5C-A38E-930CECF0A773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF037CC0-F54F-4624-B227-28AAF40EEF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{179E8614-4D99-4493-9CAD-CD59BF548B1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{179E8614-4D99-4493-9CAD-CD59BF548B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Case</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Kti</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Region 3</t>
   </si>
 </sst>
 </file>
@@ -108,15 +117,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,14 +151,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F923FA-83DC-4D7F-945F-73753BEA9616}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,172 +515,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="8">
         <v>20411500</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="9">
         <v>111389000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="9">
         <v>24995500</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="10">
         <v>2.95133</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="10">
         <v>0.57780699999999996</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="10">
         <v>4.31691</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="8">
         <v>20411500</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="9">
         <v>22277700</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="9">
         <v>999822</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="10">
         <v>0.89141000000000004</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="10">
         <v>2.3112299999999999E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="10">
         <v>4.31691</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="8">
         <v>20411500</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="9">
         <v>222777000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="9">
         <v>9998220005.5262299</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="10">
         <v>5.52623</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="10">
         <v>2.3112300000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="10">
         <v>4.31691</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="8">
         <v>20411500</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="9">
         <v>111389000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="9">
         <v>24995500</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="10">
         <v>2.5749</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="10">
         <v>0.57780699999999996</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="10">
         <v>4.31691</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="8">
         <v>20411500</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="9">
         <v>22277700</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="9">
         <v>999822</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="10">
         <v>0.51497999999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="10">
         <v>2.3112299999999999E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="10">
         <v>4.31691</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="8">
         <v>20411500</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="9">
         <v>222777000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="9">
         <v>99982200</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="10">
         <v>5.1497999999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="10">
         <v>2.3112300000000001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="10">
         <v>4.31691</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
